--- a/Pi_Inventory.xlsx
+++ b/Pi_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanj\Documents\School\MadLab\RaspberryPi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F3F36-D166-410B-90B5-7D5903205210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF62E3-C705-4BCA-9FFA-4F15176D1874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{823BD4BA-3DB3-416E-8D49-D956332B067A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{823BD4BA-3DB3-416E-8D49-D956332B067A}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="153">
   <si>
     <t>Working</t>
   </si>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Orientation (sunlight exposure / object distance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497F7313-7EFD-4A9F-9C42-6D78A8DD5B46}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2776,7 +2779,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -2945,6 +2948,11 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="6" t="s">

--- a/Pi_Inventory.xlsx
+++ b/Pi_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanj\Documents\School\MadLab\RaspberryPi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF62E3-C705-4BCA-9FFA-4F15176D1874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9281B-D3CC-467D-9EAF-48432B32B04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{823BD4BA-3DB3-416E-8D49-D956332B067A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
   <si>
     <t>Working</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>Need parts</t>
-  </si>
-  <si>
-    <t>Grrey Boxes (Logger)</t>
   </si>
   <si>
     <t>Cameras (Wide)</t>
@@ -638,12 +635,132 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t xml:space="preserve">The Raspberry Pi Zero 2 W is expected to remain in production until at least early 2028. </t>
+  </si>
+  <si>
+    <t>According to endoflife.date, the Raspberry Pi Zero 2 W is expected to be discontinued on January 1, 2030.</t>
+  </si>
+  <si>
+    <t>Pi 3 Model A+ Could Be Better</t>
+  </si>
+  <si>
+    <t>More power to multi-task</t>
+  </si>
+  <si>
+    <t>Future proofs the setup incase we want to take pictures or readings from dendrometers more frequently.</t>
+  </si>
+  <si>
+    <t>35$</t>
+  </si>
+  <si>
+    <t>25$</t>
+  </si>
+  <si>
+    <t>Camera Module 3</t>
+  </si>
+  <si>
+    <t>Camera Module 3 Wide</t>
+  </si>
+  <si>
+    <t>49$</t>
+  </si>
+  <si>
+    <t>ADC: ADS1115</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Board</t>
+  </si>
+  <si>
+    <t>SD Cards</t>
+  </si>
+  <si>
+    <t>Camera Ribbons</t>
+  </si>
+  <si>
+    <t>Power Supply Cable</t>
+  </si>
+  <si>
+    <t>Weather proof housing</t>
+  </si>
+  <si>
+    <t>Camera mounts</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Total Stock</t>
+  </si>
+  <si>
+    <t>Camera Mounts</t>
+  </si>
+  <si>
+    <t>Field Spares / Lab Testing Units</t>
+  </si>
+  <si>
+    <t>Deployed</t>
+  </si>
+  <si>
+    <t>Grey Boxes (Logger)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>7+</t>
+  </si>
+  <si>
+    <t>1 or 2</t>
+  </si>
+  <si>
+    <t>6+</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>7 or 8</t>
+  </si>
+  <si>
+    <t>Ideal Stock</t>
+  </si>
+  <si>
+    <t>9+</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>14+</t>
+  </si>
+  <si>
+    <t>Pi Boards</t>
+  </si>
+  <si>
+    <t>1 to 3</t>
+  </si>
+  <si>
+    <t>3 or 4</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>Camera mount</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +808,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -831,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -887,6 +1012,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2278,10 +2419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497F7313-7EFD-4A9F-9C42-6D78A8DD5B46}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2289,9 +2430,13 @@
     <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="9.3125" customWidth="1"/>
     <col min="3" max="3" width="10.9453125" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" customWidth="1"/>
+    <col min="7" max="7" width="25.89453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83984375" customWidth="1"/>
+    <col min="9" max="9" width="10.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2302,8 +2447,21 @@
       <c r="D1" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -2312,18 +2470,43 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="35">
+        <v>6</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="35">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>2</v>
+      </c>
+      <c r="H3" s="35">
+        <v>3</v>
+      </c>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2517,23 @@
         <v>5</v>
       </c>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="35">
+        <v>7</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="35">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2344,134 +2542,297 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="35">
+        <v>6</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="35">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="F7" s="35">
+        <v>6</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="35">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="35">
         <v>2</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+      <c r="H8" s="35">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3">
         <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="35">
+        <v>7</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" s="35">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35">
+        <v>7</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="J10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="35">
+        <v>7</v>
+      </c>
+      <c r="G13" s="35">
         <v>10</v>
       </c>
+      <c r="H13" s="35">
+        <v>17</v>
+      </c>
+      <c r="I13" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6" t="s">
+        <v>175</v>
+      </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35">
+        <v>5</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="F15" s="35">
+        <v>5</v>
+      </c>
+      <c r="G15" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="I19" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
         <v>10</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="I20" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="14">
         <v>1</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4">
-        <v>1</v>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" s="31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2499,100 +2860,100 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
@@ -2600,133 +2961,133 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>57</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="I13" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2737,18 +3098,18 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2756,15 +3117,15 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2779,8 +3140,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2796,135 +3157,135 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="22"/>
       <c r="C2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="26">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="26"/>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="26">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="26">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="25"/>
       <c r="B8" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="29">
         <v>10</v>
@@ -2933,16 +3294,16 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2951,43 +3312,43 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
         <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3315,10 +3676,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9C6F37-70EE-48D6-81D1-D7180B049FB7}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3332,13 +3693,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="F1" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
@@ -3363,7 +3724,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -3372,7 +3733,7 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3380,10 +3741,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3391,123 +3752,340 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
       <c r="D14" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="D15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="34">
+        <v>7</v>
+      </c>
+      <c r="D40" s="34">
+        <v>3</v>
+      </c>
+      <c r="E40" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="34">
+        <v>6</v>
+      </c>
+      <c r="D41" s="34">
+        <v>4</v>
+      </c>
+      <c r="E41" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="34">
+        <v>6</v>
+      </c>
+      <c r="D42" s="34">
+        <v>4</v>
+      </c>
+      <c r="E42" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="34">
+        <v>7</v>
+      </c>
+      <c r="D43" s="34">
+        <v>7</v>
+      </c>
+      <c r="E43" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="34">
+        <v>7</v>
+      </c>
+      <c r="D44" s="34">
+        <v>3</v>
+      </c>
+      <c r="E44" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="34">
+        <v>7</v>
+      </c>
+      <c r="D45" s="34">
+        <v>2</v>
+      </c>
+      <c r="E45" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="34">
+        <v>6</v>
+      </c>
+      <c r="D46" s="34">
+        <v>4</v>
+      </c>
+      <c r="E46" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="32"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3575,7 +4153,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>

--- a/Pi_Inventory.xlsx
+++ b/Pi_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanj\Documents\School\MadLab\RaspberryPi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE9281B-D3CC-467D-9EAF-48432B32B04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0B8B90-5451-4A6E-98E3-A3A09ED52880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="2" xr2:uid="{823BD4BA-3DB3-416E-8D49-D956332B067A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="3" xr2:uid="{823BD4BA-3DB3-416E-8D49-D956332B067A}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="201">
   <si>
     <t>Working</t>
   </si>
@@ -754,6 +754,33 @@
   </si>
   <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>Minimum Purchase</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero 2 W (with header pins)</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Module 3 Wide</t>
+  </si>
+  <si>
+    <t>Ribbons</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/raspberry-pi-zero-2-w-with-header/</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/raspberry-pi-camera-module-3/</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/raspberry-pi-camera-module-3-wide/</t>
+  </si>
+  <si>
+    <t>https://www.pishop.ca/product/camera-cable-for-raspberry-pi-5/</t>
   </si>
 </sst>
 </file>
@@ -956,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1010,9 +1037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,7 +1051,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2422,7 +2448,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2470,16 +2496,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="15"/>
-      <c r="F2" s="35">
+      <c r="F2" s="34">
         <v>6</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="34">
         <v>10</v>
       </c>
       <c r="J2" t="s">
@@ -2495,16 +2521,16 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="F3" s="35">
+      <c r="F3" s="34">
         <v>1</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>2</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>3</v>
       </c>
-      <c r="I3" s="35"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
@@ -2517,16 +2543,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>7</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="34">
         <v>14</v>
       </c>
       <c r="J4" t="s">
@@ -2542,16 +2568,16 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <v>6</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="34">
         <v>10</v>
       </c>
       <c r="J5" t="s">
@@ -2567,34 +2593,34 @@
         <v>2</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>0</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>0</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>0</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>6</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="34">
         <v>10</v>
       </c>
       <c r="J7" t="s">
@@ -2602,22 +2628,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>2</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>0</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>2</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <v>10</v>
       </c>
       <c r="J8" t="s">
@@ -2635,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>7</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>10</v>
       </c>
       <c r="J9" t="s">
@@ -2664,12 +2690,12 @@
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>7</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35">
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34">
         <v>9</v>
       </c>
       <c r="J10" t="s">
@@ -2677,10 +2703,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
@@ -2695,16 +2721,16 @@
       <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2717,16 +2743,16 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="F13" s="35">
+      <c r="F13" s="34">
         <v>7</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="34">
         <v>10</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="34">
         <v>17</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <v>15</v>
       </c>
     </row>
@@ -2741,12 +2767,12 @@
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>5</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
@@ -2757,10 +2783,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <v>5</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <v>4</v>
       </c>
     </row>
@@ -2788,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="34" t="s">
         <v>187</v>
       </c>
       <c r="J19" t="s">
@@ -2804,7 +2830,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="34" t="s">
         <v>188</v>
       </c>
       <c r="J20" t="s">
@@ -2820,10 +2846,10 @@
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="I21" s="35"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="30" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2831,7 +2857,7 @@
       <c r="I23">
         <v>8</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="30" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3140,8 +3166,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3678,8 +3704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9C6F37-70EE-48D6-81D1-D7180B049FB7}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3687,31 +3713,32 @@
     <col min="2" max="2" width="27.05078125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.89453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.734375" customWidth="1"/>
+    <col min="5" max="5" width="16.734375" customWidth="1"/>
     <col min="7" max="7" width="19.3125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -3925,16 +3952,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3942,13 +3969,13 @@
       <c r="B40" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C40" s="33">
         <v>7</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="33">
         <v>3</v>
       </c>
-      <c r="E40" s="34">
+      <c r="E40" s="33">
         <v>10</v>
       </c>
     </row>
@@ -3956,13 +3983,13 @@
       <c r="B41" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="33">
         <v>6</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="33">
         <v>4</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="33">
         <v>10</v>
       </c>
     </row>
@@ -3970,13 +3997,13 @@
       <c r="B42" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="33">
         <v>6</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="33">
         <v>4</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="33">
         <v>10</v>
       </c>
     </row>
@@ -3984,13 +4011,13 @@
       <c r="B43" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="34">
+      <c r="C43" s="33">
         <v>7</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="33">
         <v>7</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="33">
         <v>14</v>
       </c>
     </row>
@@ -3998,13 +4025,13 @@
       <c r="B44" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="34">
+      <c r="C44" s="33">
         <v>7</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="33">
         <v>3</v>
       </c>
-      <c r="E44" s="34">
+      <c r="E44" s="33">
         <v>10</v>
       </c>
     </row>
@@ -4012,13 +4039,13 @@
       <c r="B45" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="34">
+      <c r="C45" s="33">
         <v>7</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="33">
         <v>2</v>
       </c>
-      <c r="E45" s="34">
+      <c r="E45" s="33">
         <v>9</v>
       </c>
     </row>
@@ -4026,66 +4053,95 @@
       <c r="B46" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="33">
         <v>6</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="33">
         <v>4</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="32"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
+    <row r="49" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="31"/>
+      <c r="E49" s="32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="33">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Pi_Inventory.xlsx
+++ b/Pi_Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanj\Documents\School\MadLab\RaspberryPi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0B8B90-5451-4A6E-98E3-A3A09ED52880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC959C-AB14-4C2F-AE1E-8F5F768F8544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" activeTab="3" xr2:uid="{823BD4BA-3DB3-416E-8D49-D956332B067A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{823BD4BA-3DB3-416E-8D49-D956332B067A}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="194">
   <si>
     <t>Working</t>
   </si>
@@ -174,12 +174,6 @@
     <t>JP1</t>
   </si>
   <si>
-    <t>Dorval6</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
     <t>TODO:</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>Raspberry Pi 3</t>
   </si>
   <si>
-    <t>Pipe</t>
-  </si>
-  <si>
     <t>DPS310 sensor</t>
   </si>
   <si>
@@ -249,30 +240,12 @@
     <t>I2C Analog-to-Digital</t>
   </si>
   <si>
-    <t>☑ Upsidedown</t>
-  </si>
-  <si>
-    <t>Dorval7</t>
-  </si>
-  <si>
-    <t>☑ Upsidedown?</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
     <t>Replace</t>
   </si>
   <si>
-    <t>Upsidedown?</t>
-  </si>
-  <si>
-    <t>Dorval8</t>
-  </si>
-  <si>
-    <t>In Lab Weather Testing</t>
-  </si>
-  <si>
     <t>Pi Zero - Soldered Header</t>
   </si>
   <si>
@@ -328,24 +301,6 @@
   </si>
   <si>
     <t>two resistors</t>
-  </si>
-  <si>
-    <t>Power/Buck</t>
-  </si>
-  <si>
-    <t>☑ Blurry/Upsidedown</t>
-  </si>
-  <si>
-    <t>Blurry/Upsidedown</t>
-  </si>
-  <si>
-    <t>Upsidedown</t>
-  </si>
-  <si>
-    <t>Box?</t>
-  </si>
-  <si>
-    <t>Needs Special Box</t>
   </si>
   <si>
     <t>Either Clips or New PI</t>
@@ -711,15 +666,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>7+</t>
-  </si>
-  <si>
-    <t>1 or 2</t>
-  </si>
-  <si>
-    <t>6+</t>
-  </si>
-  <si>
     <t>10+</t>
   </si>
   <si>
@@ -732,12 +678,6 @@
     <t>9+</t>
   </si>
   <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>14+</t>
-  </si>
-  <si>
     <t>Pi Boards</t>
   </si>
   <si>
@@ -781,6 +721,45 @@
   </si>
   <si>
     <t>https://www.pishop.ca/product/camera-cable-for-raspberry-pi-5/</t>
+  </si>
+  <si>
+    <t>Dorval0</t>
+  </si>
+  <si>
+    <t>Camera / Window</t>
+  </si>
+  <si>
+    <t>Slight Blur / Fog</t>
+  </si>
+  <si>
+    <t>☑ Blurry</t>
+  </si>
+  <si>
+    <t>Holes for air to pass through</t>
+  </si>
+  <si>
+    <t>DorvalWeather</t>
+  </si>
+  <si>
+    <t>SD card connect loose</t>
+  </si>
+  <si>
+    <t>Pi Zero</t>
+  </si>
+  <si>
+    <t>Camera Case</t>
+  </si>
+  <si>
+    <t>Black pictures sometimes</t>
+  </si>
+  <si>
+    <t>Check Connections</t>
+  </si>
+  <si>
+    <t>Upload Time</t>
+  </si>
+  <si>
+    <t>12:01AM</t>
   </si>
 </sst>
 </file>
@@ -983,7 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1054,6 +1033,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1140,16 +1121,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>633050</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>244316</xdr:colOff>
+      <xdr:colOff>390366</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>49168</xdr:rowOff>
+      <xdr:rowOff>42818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1172,8 +1153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7365320" y="175260"/>
-          <a:ext cx="6012066" cy="3897268"/>
+          <a:off x="9796100" y="168910"/>
+          <a:ext cx="5732666" cy="3925208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,13 +1173,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1259,13 +1240,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1326,13 +1307,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1393,13 +1374,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1460,13 +1441,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1527,13 +1508,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1594,13 +1575,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1661,13 +1642,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1728,13 +1709,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1795,13 +1776,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1862,13 +1843,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1929,13 +1910,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1996,13 +1977,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2063,13 +2044,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>213360</xdr:colOff>
+          <xdr:colOff>215900</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>163830</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2448,21 +2429,23 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.68359375" customWidth="1"/>
-    <col min="2" max="2" width="9.3125" customWidth="1"/>
-    <col min="3" max="3" width="10.9453125" customWidth="1"/>
-    <col min="6" max="6" width="8.89453125" customWidth="1"/>
-    <col min="7" max="7" width="25.89453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83984375" customWidth="1"/>
-    <col min="9" max="9" width="10.41796875" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -2475,19 +2458,19 @@
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
@@ -2499,22 +2482,22 @@
       <c r="F2" s="34">
         <v>6</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>179</v>
+      <c r="G2" s="34">
+        <v>2</v>
+      </c>
+      <c r="H2" s="34">
+        <v>8</v>
       </c>
       <c r="I2" s="34">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -2532,7 +2515,7 @@
       </c>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2546,20 +2529,20 @@
       <c r="F4" s="34">
         <v>7</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>185</v>
+      <c r="G4" s="34">
+        <v>6</v>
+      </c>
+      <c r="H4" s="34">
+        <v>13</v>
       </c>
       <c r="I4" s="34">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2571,11 +2554,9 @@
       <c r="F5" s="34">
         <v>6</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>178</v>
-      </c>
+      <c r="G5" s="34"/>
       <c r="H5" s="34" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="I5" s="34">
         <v>10</v>
@@ -2584,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2596,17 +2577,15 @@
       <c r="F6" s="34">
         <v>0</v>
       </c>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
+      <c r="G6" s="34"/>
       <c r="H6" s="34">
         <v>0</v>
       </c>
       <c r="I6" s="34"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2614,22 +2593,20 @@
       <c r="F7" s="34">
         <v>6</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>184</v>
-      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="I7" s="34">
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2637,9 +2614,7 @@
       <c r="F8" s="34">
         <v>2</v>
       </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="34">
         <v>2</v>
       </c>
@@ -2647,10 +2622,10 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2664,20 +2639,18 @@
       <c r="F9" s="34">
         <v>7</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>176</v>
-      </c>
+      <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="I9" s="34">
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2699,16 +2672,16 @@
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2722,19 +2695,17 @@
         <v>4</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>176</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G12" s="34"/>
       <c r="H12" s="34" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -2746,9 +2717,7 @@
       <c r="F13" s="34">
         <v>7</v>
       </c>
-      <c r="G13" s="34">
-        <v>10</v>
-      </c>
+      <c r="G13" s="34"/>
       <c r="H13" s="34">
         <v>17</v>
       </c>
@@ -2756,9 +2725,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -2774,7 +2743,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2786,11 +2755,9 @@
       <c r="F15" s="34">
         <v>5</v>
       </c>
-      <c r="G15" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="34"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2800,10 +2767,10 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="I18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -2815,13 +2782,13 @@
       </c>
       <c r="D19" s="4"/>
       <c r="I19" s="34" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2831,13 +2798,13 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="I20" s="34" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>6</v>
       </c>
@@ -2848,17 +2815,17 @@
       <c r="D21" s="15"/>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I22" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I23">
         <v>8</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2869,22 +2836,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B420B5-FF46-4792-A0A6-A0593E44E08C}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -2895,263 +2865,290 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="H13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="37">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="J15" s="37">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" s="37">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="J17" s="37">
+        <v>0.16666666666666699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="37">
+        <v>0.20833333333333401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" t="s">
-        <v>108</v>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3170,148 +3167,148 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.3125" customWidth="1"/>
-    <col min="3" max="3" width="33.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.47265625" customWidth="1"/>
-    <col min="5" max="5" width="15.15625" customWidth="1"/>
-    <col min="6" max="6" width="31.3671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.1015625" customWidth="1"/>
-    <col min="9" max="10" width="41.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.08984375" customWidth="1"/>
+    <col min="9" max="10" width="41.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D3" s="26">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D4" s="26"/>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D5" s="26">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D6" s="26">
         <v>5</v>
       </c>
       <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" t="s">
-        <v>138</v>
-      </c>
       <c r="J6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D7" s="26">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
       <c r="B8" s="27" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D8" s="29">
         <v>10</v>
@@ -3320,61 +3317,61 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="27" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="25"/>
       <c r="B9" s="27" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C15" s="6" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C21" s="6" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3393,13 +3390,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3415,13 +3412,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3437,13 +3434,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3459,13 +3456,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3481,13 +3478,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3503,13 +3500,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3525,13 +3522,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3547,13 +3544,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3569,13 +3566,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3591,13 +3588,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3613,13 +3610,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3635,13 +3632,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3657,13 +3654,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3679,13 +3676,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>213360</xdr:colOff>
+                    <xdr:colOff>215900</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>163830</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>960120</xdr:colOff>
+                    <xdr:colOff>958850</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3704,21 +3701,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9C6F37-70EE-48D6-81D1-D7180B049FB7}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+    <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.734375" customWidth="1"/>
-    <col min="5" max="5" width="16.734375" customWidth="1"/>
-    <col min="7" max="7" width="19.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.578125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>31</v>
       </c>
@@ -3726,12 +3723,12 @@
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="F1" s="35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -3740,7 +3737,7 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3763,211 +3760,211 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="21" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C34">
         <v>2030</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C35">
         <v>2030</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C40" s="33">
         <v>7</v>
@@ -3979,7 +3976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>4</v>
       </c>
@@ -3993,9 +3990,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C42" s="33">
         <v>6</v>
@@ -4007,9 +4004,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C43" s="33">
         <v>7</v>
@@ -4021,9 +4018,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C44" s="33">
         <v>7</v>
@@ -4035,9 +4032,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C45" s="33">
         <v>7</v>
@@ -4049,9 +4046,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C46" s="33">
         <v>6</v>
@@ -4063,81 +4060,81 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B49" s="31"/>
       <c r="E49" s="32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D52" s="33" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E52" s="33">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="33">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
@@ -4166,14 +4163,14 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -4195,7 +4192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4207,7 +4204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4218,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4230,7 +4227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4254,7 +4251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4266,7 +4263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4278,7 +4275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
